--- a/array_results.xlsx
+++ b/array_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahm\Desktop\projects\Dan_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF598D3-7B5F-421A-A875-C2D0BACF7B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B820E8-0395-4FDE-9FAE-E2C61741F2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array_results" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="221">
   <si>
     <t>SeqId</t>
   </si>
@@ -664,7 +664,46 @@
     <t>MEAN</t>
   </si>
   <si>
-    <t>t</t>
+    <t>fold_diff_treatment_time</t>
+  </si>
+  <si>
+    <t>ttest</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>fold diff treatment</t>
+  </si>
+  <si>
+    <t>drug_fold_diff_time_std</t>
+  </si>
+  <si>
+    <t>drug_fold_diff_time_mean</t>
+  </si>
+  <si>
+    <t>fold_diff_time_ttest</t>
+  </si>
+  <si>
+    <t>fold_diff_time_mw</t>
+  </si>
+  <si>
+    <t>Placebo_fold_diff_time_mean</t>
+  </si>
+  <si>
+    <t>placebo_fold_diff_time_std</t>
+  </si>
+  <si>
+    <t>fold diff treatment mean</t>
+  </si>
+  <si>
+    <t>placebo fold diff time mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>Symbol</t>
   </si>
 </sst>
 </file>
@@ -807,7 +846,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -993,8 +1032,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1124,6 +1187,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1169,13 +1269,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1538,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3378,8 +3498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3412,33 +3532,33 @@
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4318,3964 +4438,1325 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7416BFC0-64FD-4EF3-B4FB-3545A45D1E4D}">
-  <dimension ref="A1:Y323"/>
+  <dimension ref="A1:AN323"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="W2" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="X2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="AA2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="AB2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AK2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="AL2" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN2"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6">
         <f>AVERAGE(array_results!AI$28,array_results!AI$31)</f>
         <v>1417.75</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <f>_xlfn.STDEV.P(array_results!$AI$28,array_results!$AI$31)</f>
         <v>125.25</v>
       </c>
-      <c r="G3">
-        <f>E3/H3</f>
+      <c r="G3" s="6">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AI$28,array_results!$AI$31),CHOOSE({1,2,3,4,5},array_results!$AI$23,array_results!$AI$27,array_results!$AI$25,array_results!$AI$29,array_results!$AI$34),2,3)</f>
+        <v>0.99718296306196941</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
+        <f>E3/J3</f>
         <v>0.99959811608099713</v>
       </c>
-      <c r="H3">
+      <c r="J3" s="6">
         <f>AVERAGE(array_results!$AI$23,array_results!$AI$27,array_results!$AI$25,array_results!$AI$29,array_results!$AI$34)</f>
         <v>1418.3200000000002</v>
       </c>
-      <c r="I3">
+      <c r="K3" s="6">
         <f>_xlfn.STDEV.P(array_results!$AI$23,array_results!$AI$27,array_results!$AI$25,array_results!$AI$29,array_results!$AI$34)</f>
         <v>108.1183314706623</v>
       </c>
-      <c r="J3">
+      <c r="L3" s="5">
         <f>AVERAGE(array_results!$AI$30,array_results!$AI$35)</f>
         <v>1413.5</v>
       </c>
-      <c r="K3">
+      <c r="M3" s="5">
         <f>_xlfn.STDEV.P(array_results!$AI$30,array_results!$AI$35)</f>
         <v>92.700000000000045</v>
       </c>
-      <c r="L3">
-        <f>J3/N3</f>
+      <c r="N3" s="5">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AI$30,array_results!$AI$35),CHOOSE({1,2,3},array_results!$AI$22,array_results!$AI$32,array_results!$AI$33),2,3)</f>
+        <v>0.88133272380354089</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <f>L3/V3</f>
         <v>0.98474292880033454</v>
       </c>
-      <c r="M3">
+      <c r="Q3" s="5">
         <f>'just data'!$N$10</f>
         <v>0.99902295385286521</v>
       </c>
-      <c r="N3">
+      <c r="R3" s="5">
+        <f>'just data'!$N$12</f>
+        <v>2.2872597404388184E-2</v>
+      </c>
+      <c r="S3" s="5">
+        <f>'just data'!$N$14</f>
+        <v>0.89369016722656824</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5">
+        <f>Q3/X3</f>
+        <v>0.99332803181670382</v>
+      </c>
+      <c r="V3" s="5">
         <f>AVERAGE(array_results!$AI$22,array_results!$AI$32,array_results!$AI$33)</f>
         <v>1435.3999999999999</v>
       </c>
-      <c r="O3">
+      <c r="W3" s="5">
         <f>_xlfn.STDEV.P(array_results!$AI$22,array_results!$AI$32,array_results!$AI$33)</f>
         <v>136.48049921753176</v>
       </c>
-      <c r="P3">
+      <c r="X3" s="5">
         <f>'just data'!$N$11</f>
         <v>1.0057331735879294</v>
       </c>
-      <c r="Q3">
+      <c r="Y3" s="5">
+        <f>'just data'!$N$13</f>
+        <v>5.6533799597230573E-2</v>
+      </c>
+      <c r="Z3" s="6">
         <f>AVERAGE(array_results!$AI$24,array_results!$AI$36)</f>
         <v>1441.2</v>
       </c>
-      <c r="R3">
+      <c r="AA3" s="6">
         <f>_xlfn.STDEV.P(array_results!$AI$24,array_results!$AI$36)</f>
         <v>209.70000000000019</v>
       </c>
-      <c r="S3">
-        <f>Q3/U3</f>
+      <c r="AB3" s="6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AI$24,array_results!$AI$36),array_results!$AI$26,2,3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6">
+        <f>Z3/AJ3</f>
         <v>0.94226871526642697</v>
       </c>
-      <c r="T3">
+      <c r="AE3" s="6">
         <f>'just data'!$O$10</f>
         <v>1.0113666762354729</v>
       </c>
-      <c r="U3">
+      <c r="AF3" s="6">
+        <f>'just data'!$O$12</f>
+        <v>5.8562034069128632E-2</v>
+      </c>
+      <c r="AG3" s="6" t="e">
+        <f>'just data'!$O$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6">
+        <f>AE3/AL3</f>
+        <v>1.0703492898478981</v>
+      </c>
+      <c r="AJ3" s="6">
         <f>AVERAGE(array_results!$AI$26)</f>
         <v>1529.5</v>
       </c>
-      <c r="V3">
+      <c r="AK3" s="6">
         <f>_xlfn.STDEV.P(array_results!$AI$26)</f>
         <v>0</v>
       </c>
-      <c r="W3">
+      <c r="AL3" s="6">
         <f>'just data'!$O$11</f>
         <v>0.94489405078149125</v>
       </c>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="AM3" s="6">
+        <f>'just data'!$O$13</f>
+        <v>0</v>
+      </c>
+      <c r="AN3"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6">
+        <f>AVERAGE(array_results!AJ$28,array_results!AJ$31)</f>
         <v>546.15</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <f>_xlfn.STDEV.P(array_results!$AJ$28,array_results!$AJ$31)</f>
         <v>20.850000000000023</v>
       </c>
-      <c r="G4">
-        <f>E4/H4</f>
+      <c r="G4" s="6">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AJ$28,array_results!$AJ$31),CHOOSE({1,2,3,4,5},array_results!$AJ$23,array_results!$AJ$27,array_results!$AJ$25,array_results!$AJ$29,array_results!$AJ$34),2,3)</f>
+        <v>0.14826292416345965</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
+        <f>E4/J4</f>
         <v>1.1207214971681849</v>
       </c>
-      <c r="H4">
+      <c r="J4" s="6">
         <f>AVERAGE(array_results!$AJ$23,array_results!$AJ$27,array_results!$AJ$25,array_results!$AJ$29,array_results!$AJ$34)</f>
         <v>487.32000000000005</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="6">
         <f>_xlfn.STDEV.P(array_results!$AJ$23,array_results!$AJ$27,array_results!$AJ$25,array_results!$AJ$29,array_results!$AJ$34)</f>
         <v>50.792574260416743</v>
       </c>
-      <c r="J4">
+      <c r="L4" s="5">
         <f>AVERAGE(array_results!$AJ$30,array_results!$AJ$35)</f>
         <v>544.59999999999991</v>
       </c>
-      <c r="K4">
+      <c r="M4" s="5">
         <f>_xlfn.STDEV.P(array_results!$AJ$30,array_results!$AJ$35)</f>
         <v>19.199999999999989</v>
       </c>
-      <c r="L4">
-        <f>J4/N4</f>
+      <c r="N4" s="5">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AJ$30,array_results!$AJ$35),CHOOSE({1,2,3},array_results!$AJ$22,array_results!$AJ$32,array_results!$AJ$33),2,3)</f>
+        <v>0.16638437613491014</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5">
+        <f>L4/V4</f>
         <v>1.1441176470588232</v>
       </c>
-      <c r="M4">
+      <c r="Q4" s="5">
         <f>'just data'!$P$10</f>
         <v>0.99727331421601351</v>
       </c>
-      <c r="N4">
+      <c r="R4" s="5">
+        <f>'just data'!$P$12</f>
+        <v>2.9170531930859389E-3</v>
+      </c>
+      <c r="S4" s="5">
+        <f>'just data'!$P$14</f>
+        <v>1.6894256310163551E-2</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5">
+        <f>Q4/X4</f>
+        <v>0.93414152756449653</v>
+      </c>
+      <c r="V4" s="5">
         <f>AVERAGE(array_results!$AJ$22,array_results!$AJ$32,array_results!$AJ$33)</f>
         <v>476</v>
       </c>
-      <c r="O4">
+      <c r="W4" s="5">
         <f>_xlfn.STDEV.P(array_results!$AJ$22,array_results!$AJ$32,array_results!$AJ$33)</f>
         <v>4.2551929059287756</v>
       </c>
-      <c r="P4">
+      <c r="X4" s="5">
         <f>'just data'!$P$11</f>
         <v>1.0675826786291311</v>
       </c>
-      <c r="Q4">
+      <c r="Y4" s="5">
+        <f>'just data'!$P$13</f>
+        <v>1.5057443422066327E-2</v>
+      </c>
+      <c r="Z4" s="6">
         <f>AVERAGE(array_results!$AJ$24,array_results!$AJ$36)</f>
         <v>536.75</v>
       </c>
-      <c r="R4">
+      <c r="AA4" s="6">
         <f>_xlfn.STDEV.P(array_results!$AJ$24,array_results!$AJ$36)</f>
         <v>18.75</v>
       </c>
-      <c r="S4">
-        <f>Q4/U4</f>
+      <c r="AB4" s="6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AJ$24,array_results!$AJ$36),array_results!$AJ$26,2,3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6">
+        <f>Z4/AJ4</f>
         <v>1.0258983180428134</v>
       </c>
-      <c r="T4">
+      <c r="AE4" s="6">
         <f>'just data'!$Q$10</f>
         <v>0.98291049609343917</v>
       </c>
-      <c r="U4">
+      <c r="AF4" s="6">
+        <f>'just data'!$Q$12</f>
+        <v>3.1926830422928654E-3</v>
+      </c>
+      <c r="AG4" s="6" t="e">
+        <f>'just data'!$Q$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6">
+        <f t="shared" ref="AI4:AI6" si="0">AE4/AL4</f>
+        <v>0.83149118037262271</v>
+      </c>
+      <c r="AJ4" s="6">
         <f>AVERAGE(array_results!$AJ$26)</f>
         <v>523.20000000000005</v>
       </c>
-      <c r="V4">
+      <c r="AK4" s="6">
         <f>_xlfn.STDEV.P(array_results!$AJ$26)</f>
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="AL4" s="6">
         <f>'just data'!$Q$11</f>
         <v>1.1821057388160867</v>
       </c>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="AM4" s="6">
+        <f>'just data'!$Q$13</f>
+        <v>0</v>
+      </c>
+      <c r="AN4"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6">
         <f>AVERAGE(array_results!$AK$28,array_results!$AK$31)</f>
         <v>342.95</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f>_xlfn.STDEV.P(array_results!$AK$28,array_results!$AK$31)</f>
         <v>0.44999999999998863</v>
       </c>
-      <c r="G5">
-        <f>E5/H5</f>
+      <c r="G5" s="6">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AK$28,array_results!$AK$31),CHOOSE({1,2,3,4,5},array_results!$AK$23,array_results!$AK$27,array_results!$AK$25,array_results!$AK$29,array_results!$AK$34),2,3)</f>
+        <v>0.11797909803254451</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <f>E5/J5</f>
         <v>1.0908772822698642</v>
       </c>
-      <c r="H5">
+      <c r="J5" s="6">
         <f>AVERAGE(array_results!$AK$23,array_results!$AK$27,array_results!$AK$25,array_results!$AK$29,array_results!$AK$34)</f>
         <v>314.38000000000005</v>
       </c>
-      <c r="I5">
+      <c r="K5" s="6">
         <f>_xlfn.STDEV.P(array_results!$AK$23,array_results!$AK$27,array_results!$AK$25,array_results!$AK$29,array_results!$AK$34)</f>
         <v>28.771054898977884</v>
       </c>
-      <c r="J5">
+      <c r="L5" s="5">
         <f>AVERAGE(array_results!$AK$30,array_results!$AK$35)</f>
         <v>327.55</v>
       </c>
-      <c r="K5">
+      <c r="M5" s="5">
         <f>_xlfn.STDEV.P(array_results!$AK$30,array_results!$AK$35)</f>
         <v>13.25</v>
       </c>
-      <c r="L5">
-        <f>J5/N5</f>
+      <c r="N5" s="5">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AK$30,array_results!$AK$35),CHOOSE({1,2,3},array_results!$AK$22,array_results!$AK$32,array_results!$AK$33),2,3)</f>
+        <v>0.8555007975235055</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5">
+        <f>L5/V5</f>
         <v>0.97795581210191085</v>
       </c>
-      <c r="M5">
+      <c r="Q5" s="5">
         <f>'just data'!$R$10</f>
         <v>0.95514783466324316</v>
       </c>
-      <c r="N5">
+      <c r="R5" s="5">
+        <f>'just data'!$R$12</f>
+        <v>3.9888661687121851E-2</v>
+      </c>
+      <c r="S5" s="5">
+        <f>'just data'!$R$14</f>
+        <v>0.16904789594159697</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5">
+        <f>Q5/X5</f>
+        <v>0.90054198117934714</v>
+      </c>
+      <c r="V5" s="5">
         <f>AVERAGE(array_results!$AK$22,array_results!$AK$32,array_results!$AK$33)</f>
         <v>334.93333333333334</v>
       </c>
-      <c r="O5">
+      <c r="W5" s="5">
         <f>_xlfn.STDEV.P(array_results!$AK$22,array_results!$AK$32,array_results!$AK$33)</f>
         <v>48.359785864795803</v>
       </c>
-      <c r="P5">
+      <c r="X5" s="5">
         <f>'just data'!$R$11</f>
         <v>1.060636655064525</v>
       </c>
-      <c r="Q5">
+      <c r="Y5" s="5">
+        <f>'just data'!$R$13</f>
+        <v>3.4723890582773351E-2</v>
+      </c>
+      <c r="Z5" s="6">
         <f>AVERAGE(array_results!$AK$24,array_results!$AK$36)</f>
         <v>341.05</v>
       </c>
-      <c r="R5">
+      <c r="AA5" s="6">
         <f>_xlfn.STDEV.P(array_results!$AK$24,array_results!$AK$36)</f>
         <v>9.9499999999999886</v>
       </c>
-      <c r="S5">
-        <f>Q5/U5</f>
+      <c r="AB5" s="6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AK$24,array_results!$AK$36),array_results!$AK$26,2,3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6">
+        <f>Z5/AJ5</f>
         <v>0.78222477064220186</v>
       </c>
-      <c r="T5">
+      <c r="AE5" s="6">
         <f>'just data'!$S$10</f>
         <v>0.99442347669717601</v>
       </c>
-      <c r="U5">
+      <c r="AF5" s="6">
+        <f>'just data'!$S$12</f>
+        <v>2.7708148230022711E-2</v>
+      </c>
+      <c r="AG5" s="6" t="e">
+        <f>'just data'!$S$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83636488280929921</v>
+      </c>
+      <c r="AJ5" s="6">
         <f>AVERAGE(array_results!$AK$26)</f>
         <v>436</v>
       </c>
-      <c r="V5">
+      <c r="AK5" s="6">
         <f>_xlfn.STDEV.P(array_results!$AK$26)</f>
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="AL5" s="6">
         <f>'just data'!$S$11</f>
         <v>1.1889828197436596</v>
       </c>
-      <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="AM5" s="6">
+        <f>'just data'!$S$13</f>
+        <v>0</v>
+      </c>
+      <c r="AN5"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6">
         <f>AVERAGE(array_results!$AL$28,array_results!$AL$31)</f>
         <v>943</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <f>_xlfn.STDEV.P(array_results!$AL$28,array_results!$AL$31)</f>
         <v>90.5</v>
       </c>
-      <c r="G6">
-        <f>E6/H6</f>
+      <c r="G6" s="6">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AL$28,array_results!$AL$31),CHOOSE({1,2,3,4,5},array_results!$AL$23,array_results!$AL$27,array_results!$AL$25,array_results!$AL$29,array_results!$AL$34),2,3)</f>
+        <v>0.76740691169663244</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
+        <f>E6/J6</f>
         <v>1.0381803769596618</v>
       </c>
-      <c r="H6">
+      <c r="J6" s="6">
         <f>AVERAGE(array_results!$AL$23,array_results!$AL$27,array_results!$AL$25,array_results!$AL$29,array_results!$AL$34)</f>
         <v>908.31999999999994</v>
       </c>
-      <c r="I6">
+      <c r="K6" s="6">
         <f>_xlfn.STDEV.P(array_results!$AL$23,array_results!$AL$27,array_results!$AL$25,array_results!$AL$29,array_results!$AL$34)</f>
         <v>35.161478922252392</v>
       </c>
-      <c r="J6">
+      <c r="L6" s="5">
         <f>AVERAGE(array_results!$AL$30,array_results!$AL$35)</f>
         <v>930.35</v>
       </c>
-      <c r="K6">
+      <c r="M6" s="5">
         <f>_xlfn.STDEV.P(array_results!$AL$30,array_results!$AL$35)</f>
         <v>78.149999999999977</v>
       </c>
-      <c r="L6">
-        <f>J6/N6</f>
+      <c r="N6" s="5">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AL$30,array_results!$AL$35),CHOOSE({1,2,3},array_results!$AL$22,array_results!$AL$32,array_results!$AL$33),2,3)</f>
+        <v>0.63688730850372632</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5">
+        <f>L6/V6</f>
         <v>1.0567755859301049</v>
       </c>
-      <c r="M6">
+      <c r="Q6" s="5">
         <f>'just data'!$T$10</f>
         <v>0.98772922350524306</v>
       </c>
-      <c r="N6">
+      <c r="R6" s="5">
+        <f>'just data'!$T$12</f>
+        <v>1.1918870336399323E-2</v>
+      </c>
+      <c r="S6" s="5">
+        <f>'just data'!$T$14</f>
+        <v>0.92767505843367104</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5">
+        <f>Q6/X6</f>
+        <v>0.99806895586553124</v>
+      </c>
+      <c r="V6" s="5">
         <f>AVERAGE(array_results!$AL$22,array_results!$AL$32,array_results!$AL$33)</f>
         <v>880.36666666666667</v>
       </c>
-      <c r="O6">
+      <c r="W6" s="5">
         <f>_xlfn.STDEV.P(array_results!$AL$22,array_results!$AL$32,array_results!$AL$33)</f>
         <v>36.766047138932713</v>
       </c>
-      <c r="P6">
+      <c r="X6" s="5">
         <f>'just data'!$T$11</f>
         <v>0.9896402625294346</v>
       </c>
-      <c r="Q6">
+      <c r="Y6" s="5">
+        <f>'just data'!$T$13</f>
+        <v>2.1588711717813579E-2</v>
+      </c>
+      <c r="Z6" s="6">
         <f>AVERAGE(array_results!$AL$24,array_results!$AL$36)</f>
         <v>983.9</v>
       </c>
-      <c r="R6">
+      <c r="AA6" s="6">
         <f>_xlfn.STDEV.P(array_results!$AL$24,array_results!$AL$36)</f>
         <v>66.699999999999932</v>
       </c>
-      <c r="S6">
-        <f>Q6/U6</f>
+      <c r="AB6" s="6" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},array_results!$AL$24,array_results!$AL$36),array_results!$AL$26,2,3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6">
+        <f>Z6/AJ6</f>
         <v>1.0768304695195359</v>
       </c>
-      <c r="T6">
+      <c r="AE6" s="6">
         <f>'just data'!$U$10</f>
         <v>1.0462200732925018</v>
       </c>
-      <c r="U6">
+      <c r="AF6" s="6">
+        <f>'just data'!$U$12</f>
+        <v>2.9674354859990926E-2</v>
+      </c>
+      <c r="AG6" s="6" t="e">
+        <f>'just data'!$U$14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98026595681920847</v>
+      </c>
+      <c r="AJ6" s="6">
         <f>AVERAGE(array_results!$AL$26)</f>
         <v>913.7</v>
       </c>
-      <c r="V6">
+      <c r="AK6" s="6">
         <f>_xlfn.STDEV.P(array_results!$AL$26)</f>
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="AL6" s="6">
         <f>'just data'!$U$11</f>
         <v>1.0672818595958415</v>
       </c>
-      <c r="Y6"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AM6" s="6">
+        <f>'just data'!$U$13</f>
+        <v>0</v>
+      </c>
+      <c r="AN6"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="M7"/>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
-      <c r="Y7"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AN7"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="M8"/>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
-      <c r="Y8"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AN8"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="M9"/>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
-      <c r="Y9"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AN9"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="M10"/>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
-      <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AN10"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="M11"/>
+      <c r="H11"/>
+      <c r="I11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
-      <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AN11"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="M12"/>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
-      <c r="Y12"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AN12"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="M13"/>
+      <c r="H13"/>
+      <c r="I13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AN13"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="M14"/>
+      <c r="H14"/>
+      <c r="I14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
       <c r="T14"/>
-      <c r="Y14"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AN14"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="M15"/>
+      <c r="H15"/>
+      <c r="I15"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
       <c r="T15"/>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="U15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AN15"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="M16"/>
+      <c r="H16"/>
+      <c r="I16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
       <c r="T16"/>
-      <c r="Y16"/>
-    </row>
-    <row r="17" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="M17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="Y17"/>
-    </row>
-    <row r="18" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="M18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="Y18"/>
-    </row>
-    <row r="19" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="M19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="Y19"/>
-    </row>
-    <row r="20" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="M20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="Y20"/>
-    </row>
-    <row r="21" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="M21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="Y21"/>
-    </row>
-    <row r="22" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="M22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="Y22"/>
-    </row>
-    <row r="23" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="M23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="Y23"/>
-    </row>
-    <row r="24" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="M24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="Y24"/>
-    </row>
-    <row r="25" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="M25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="Y25"/>
-    </row>
-    <row r="26" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="M26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="Y26"/>
-    </row>
-    <row r="27" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="M27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="Y27"/>
-    </row>
-    <row r="28" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="M28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="Y28"/>
-    </row>
-    <row r="29" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="M29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="Y29"/>
-    </row>
-    <row r="30" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="M30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="Y30"/>
-    </row>
-    <row r="31" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="M31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="Y31"/>
-    </row>
-    <row r="32" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="M32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="Y32"/>
-    </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="M33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="Y33"/>
-    </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="M34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="Y34"/>
-    </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="M35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="Y35"/>
-    </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="M36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="Y36"/>
-    </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="M37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="Y37"/>
-    </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="M38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="Y38"/>
-    </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="M39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="Y39"/>
-    </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="M40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="Y40"/>
-    </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="M41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="Y41"/>
-    </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="M42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="Y42"/>
-    </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="M43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="Y43"/>
-    </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="M44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="Y44"/>
-    </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="M45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="Y45"/>
-    </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="M46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="Y46"/>
-    </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="M47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="Y47"/>
-    </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="M48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="Y48"/>
-    </row>
-    <row r="49" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="M49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="Y49"/>
-    </row>
-    <row r="50" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="M50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="Y50"/>
-    </row>
-    <row r="51" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="M51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="Y51"/>
-    </row>
-    <row r="52" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="M52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="Y52"/>
-    </row>
-    <row r="53" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="M53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="Y53"/>
-    </row>
-    <row r="54" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="M54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="Y54"/>
-    </row>
-    <row r="55" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="M55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="Y55"/>
-    </row>
-    <row r="56" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="M56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="Y56"/>
-    </row>
-    <row r="57" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="M57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="Y57"/>
-    </row>
-    <row r="58" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="M58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="Y58"/>
-    </row>
-    <row r="59" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="M59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="Y59"/>
-    </row>
-    <row r="60" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="M60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="Y60"/>
-    </row>
-    <row r="61" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="M61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="Y61"/>
-    </row>
-    <row r="62" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="M62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="Y62"/>
-    </row>
-    <row r="63" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="M63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="Y63"/>
-    </row>
-    <row r="64" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="M64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="Y64"/>
-    </row>
-    <row r="65" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="M65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="Y65"/>
-    </row>
-    <row r="66" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="M66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="Y66"/>
-    </row>
-    <row r="67" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="M67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="Y67"/>
-    </row>
-    <row r="68" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="M68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="Y68"/>
-    </row>
-    <row r="69" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="M69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="Y69"/>
-    </row>
-    <row r="70" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="M70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="Y70"/>
-    </row>
-    <row r="71" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="M71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="Y71"/>
-    </row>
-    <row r="72" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="M72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="Y72"/>
-    </row>
-    <row r="73" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="M73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="Y73"/>
-    </row>
-    <row r="74" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="M74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="Y74"/>
-    </row>
-    <row r="75" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="M75"/>
-      <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="Y75"/>
-    </row>
-    <row r="76" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="M76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="Y76"/>
-    </row>
-    <row r="77" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="M77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="Y77"/>
-    </row>
-    <row r="78" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="M78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="Y78"/>
-    </row>
-    <row r="79" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="M79"/>
-      <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="Y79"/>
-    </row>
-    <row r="80" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="M80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="Y80"/>
-    </row>
-    <row r="81" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="M81"/>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="Y81"/>
-    </row>
-    <row r="82" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="M82"/>
-      <c r="Q82"/>
-      <c r="R82"/>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="Y82"/>
-    </row>
-    <row r="83" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E83"/>
-      <c r="F83"/>
-      <c r="G83"/>
-      <c r="M83"/>
-      <c r="Q83"/>
-      <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="Y83"/>
-    </row>
-    <row r="84" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="M84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="Y84"/>
-    </row>
-    <row r="85" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="M85"/>
-      <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="Y85"/>
-    </row>
-    <row r="86" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="M86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="Y86"/>
-    </row>
-    <row r="87" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E87"/>
-      <c r="F87"/>
-      <c r="G87"/>
-      <c r="M87"/>
-      <c r="Q87"/>
-      <c r="R87"/>
-      <c r="S87"/>
-      <c r="T87"/>
-      <c r="Y87"/>
-    </row>
-    <row r="88" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E88"/>
-      <c r="F88"/>
-      <c r="G88"/>
-      <c r="M88"/>
-      <c r="Q88"/>
-      <c r="R88"/>
-      <c r="S88"/>
-      <c r="T88"/>
-      <c r="Y88"/>
-    </row>
-    <row r="89" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E89"/>
-      <c r="F89"/>
-      <c r="G89"/>
-      <c r="M89"/>
-      <c r="Q89"/>
-      <c r="R89"/>
-      <c r="S89"/>
-      <c r="T89"/>
-      <c r="Y89"/>
-    </row>
-    <row r="90" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="M90"/>
-      <c r="Q90"/>
-      <c r="R90"/>
-      <c r="S90"/>
-      <c r="T90"/>
-      <c r="Y90"/>
-    </row>
-    <row r="91" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="M91"/>
-      <c r="Q91"/>
-      <c r="R91"/>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="Y91"/>
-    </row>
-    <row r="92" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E92"/>
-      <c r="F92"/>
-      <c r="G92"/>
-      <c r="M92"/>
-      <c r="Q92"/>
-      <c r="R92"/>
-      <c r="S92"/>
-      <c r="T92"/>
-      <c r="Y92"/>
-    </row>
-    <row r="93" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E93"/>
-      <c r="F93"/>
-      <c r="G93"/>
-      <c r="M93"/>
-      <c r="Q93"/>
-      <c r="R93"/>
-      <c r="S93"/>
-      <c r="T93"/>
-      <c r="Y93"/>
-    </row>
-    <row r="94" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E94"/>
-      <c r="F94"/>
-      <c r="G94"/>
-      <c r="M94"/>
-      <c r="Q94"/>
-      <c r="R94"/>
-      <c r="S94"/>
-      <c r="T94"/>
-      <c r="Y94"/>
-    </row>
-    <row r="95" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-      <c r="M95"/>
-      <c r="Q95"/>
-      <c r="R95"/>
-      <c r="S95"/>
-      <c r="T95"/>
-      <c r="Y95"/>
-    </row>
-    <row r="96" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="M96"/>
-      <c r="Q96"/>
-      <c r="R96"/>
-      <c r="S96"/>
-      <c r="T96"/>
-      <c r="Y96"/>
-    </row>
-    <row r="97" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="M97"/>
-      <c r="Q97"/>
-      <c r="R97"/>
-      <c r="S97"/>
-      <c r="T97"/>
-      <c r="Y97"/>
-    </row>
-    <row r="98" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="G98"/>
-      <c r="M98"/>
-      <c r="Q98"/>
-      <c r="R98"/>
-      <c r="S98"/>
-      <c r="T98"/>
-      <c r="Y98"/>
-    </row>
-    <row r="99" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
-      <c r="M99"/>
-      <c r="Q99"/>
-      <c r="R99"/>
-      <c r="S99"/>
-      <c r="T99"/>
-      <c r="Y99"/>
-    </row>
-    <row r="100" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
-      <c r="M100"/>
-      <c r="Q100"/>
-      <c r="R100"/>
-      <c r="S100"/>
-      <c r="T100"/>
-      <c r="Y100"/>
-    </row>
-    <row r="101" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="M101"/>
-      <c r="Q101"/>
-      <c r="R101"/>
-      <c r="S101"/>
-      <c r="T101"/>
-      <c r="Y101"/>
-    </row>
-    <row r="102" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="M102"/>
-      <c r="Q102"/>
-      <c r="R102"/>
-      <c r="S102"/>
-      <c r="T102"/>
-      <c r="Y102"/>
-    </row>
-    <row r="103" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="M103"/>
-      <c r="Q103"/>
-      <c r="R103"/>
-      <c r="S103"/>
-      <c r="T103"/>
-      <c r="Y103"/>
-    </row>
-    <row r="104" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="M104"/>
-      <c r="Q104"/>
-      <c r="R104"/>
-      <c r="S104"/>
-      <c r="T104"/>
-      <c r="Y104"/>
-    </row>
-    <row r="105" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="M105"/>
-      <c r="Q105"/>
-      <c r="R105"/>
-      <c r="S105"/>
-      <c r="T105"/>
-      <c r="Y105"/>
-    </row>
-    <row r="106" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="M106"/>
-      <c r="Q106"/>
-      <c r="R106"/>
-      <c r="S106"/>
-      <c r="T106"/>
-      <c r="Y106"/>
-    </row>
-    <row r="107" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="M107"/>
-      <c r="Q107"/>
-      <c r="R107"/>
-      <c r="S107"/>
-      <c r="T107"/>
-      <c r="Y107"/>
-    </row>
-    <row r="108" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="M108"/>
-      <c r="Q108"/>
-      <c r="R108"/>
-      <c r="S108"/>
-      <c r="T108"/>
-      <c r="Y108"/>
-    </row>
-    <row r="109" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="M109"/>
-      <c r="Q109"/>
-      <c r="R109"/>
-      <c r="S109"/>
-      <c r="T109"/>
-      <c r="Y109"/>
-    </row>
-    <row r="110" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="M110"/>
-      <c r="Q110"/>
-      <c r="R110"/>
-      <c r="S110"/>
-      <c r="T110"/>
-      <c r="Y110"/>
-    </row>
-    <row r="111" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="M111"/>
-      <c r="Q111"/>
-      <c r="R111"/>
-      <c r="S111"/>
-      <c r="T111"/>
-      <c r="Y111"/>
-    </row>
-    <row r="112" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="M112"/>
-      <c r="Q112"/>
-      <c r="R112"/>
-      <c r="S112"/>
-      <c r="T112"/>
-      <c r="Y112"/>
-    </row>
-    <row r="113" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="M113"/>
-      <c r="Q113"/>
-      <c r="R113"/>
-      <c r="S113"/>
-      <c r="T113"/>
-      <c r="Y113"/>
-    </row>
-    <row r="114" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="M114"/>
-      <c r="Q114"/>
-      <c r="R114"/>
-      <c r="S114"/>
-      <c r="T114"/>
-      <c r="Y114"/>
-    </row>
-    <row r="115" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-      <c r="M115"/>
-      <c r="Q115"/>
-      <c r="R115"/>
-      <c r="S115"/>
-      <c r="T115"/>
-      <c r="Y115"/>
-    </row>
-    <row r="116" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-      <c r="M116"/>
-      <c r="Q116"/>
-      <c r="R116"/>
-      <c r="S116"/>
-      <c r="T116"/>
-      <c r="Y116"/>
-    </row>
-    <row r="117" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-      <c r="M117"/>
-      <c r="Q117"/>
-      <c r="R117"/>
-      <c r="S117"/>
-      <c r="T117"/>
-      <c r="Y117"/>
-    </row>
-    <row r="118" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="M118"/>
-      <c r="Q118"/>
-      <c r="R118"/>
-      <c r="S118"/>
-      <c r="T118"/>
-      <c r="Y118"/>
-    </row>
-    <row r="119" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-      <c r="M119"/>
-      <c r="Q119"/>
-      <c r="R119"/>
-      <c r="S119"/>
-      <c r="T119"/>
-      <c r="Y119"/>
-    </row>
-    <row r="120" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="M120"/>
-      <c r="Q120"/>
-      <c r="R120"/>
-      <c r="S120"/>
-      <c r="T120"/>
-      <c r="Y120"/>
-    </row>
-    <row r="121" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="M121"/>
-      <c r="Q121"/>
-      <c r="R121"/>
-      <c r="S121"/>
-      <c r="T121"/>
-      <c r="Y121"/>
-    </row>
-    <row r="122" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="M122"/>
-      <c r="Q122"/>
-      <c r="R122"/>
-      <c r="S122"/>
-      <c r="T122"/>
-      <c r="Y122"/>
-    </row>
-    <row r="123" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-      <c r="M123"/>
-      <c r="Q123"/>
-      <c r="R123"/>
-      <c r="S123"/>
-      <c r="T123"/>
-      <c r="Y123"/>
-    </row>
-    <row r="124" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-      <c r="M124"/>
-      <c r="Q124"/>
-      <c r="R124"/>
-      <c r="S124"/>
-      <c r="T124"/>
-      <c r="Y124"/>
-    </row>
-    <row r="125" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-      <c r="M125"/>
-      <c r="Q125"/>
-      <c r="R125"/>
-      <c r="S125"/>
-      <c r="T125"/>
-      <c r="Y125"/>
-    </row>
-    <row r="126" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="M126"/>
-      <c r="Q126"/>
-      <c r="R126"/>
-      <c r="S126"/>
-      <c r="T126"/>
-      <c r="Y126"/>
-    </row>
-    <row r="127" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-      <c r="M127"/>
-      <c r="Q127"/>
-      <c r="R127"/>
-      <c r="S127"/>
-      <c r="T127"/>
-      <c r="Y127"/>
-    </row>
-    <row r="128" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E128"/>
-      <c r="F128"/>
-      <c r="G128"/>
-      <c r="M128"/>
-      <c r="Q128"/>
-      <c r="R128"/>
-      <c r="S128"/>
-      <c r="T128"/>
-      <c r="Y128"/>
-    </row>
-    <row r="129" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E129"/>
-      <c r="F129"/>
-      <c r="G129"/>
-      <c r="M129"/>
-      <c r="Q129"/>
-      <c r="R129"/>
-      <c r="S129"/>
-      <c r="T129"/>
-      <c r="Y129"/>
-    </row>
-    <row r="130" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E130"/>
-      <c r="F130"/>
-      <c r="G130"/>
-      <c r="M130"/>
-      <c r="Q130"/>
-      <c r="R130"/>
-      <c r="S130"/>
-      <c r="T130"/>
-      <c r="Y130"/>
-    </row>
-    <row r="131" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E131"/>
-      <c r="F131"/>
-      <c r="G131"/>
-      <c r="M131"/>
-      <c r="Q131"/>
-      <c r="R131"/>
-      <c r="S131"/>
-      <c r="T131"/>
-      <c r="Y131"/>
-    </row>
-    <row r="132" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="M132"/>
-      <c r="Q132"/>
-      <c r="R132"/>
-      <c r="S132"/>
-      <c r="T132"/>
-      <c r="Y132"/>
-    </row>
-    <row r="133" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="M133"/>
-      <c r="Q133"/>
-      <c r="R133"/>
-      <c r="S133"/>
-      <c r="T133"/>
-      <c r="Y133"/>
-    </row>
-    <row r="134" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="M134"/>
-      <c r="Q134"/>
-      <c r="R134"/>
-      <c r="S134"/>
-      <c r="T134"/>
-      <c r="Y134"/>
-    </row>
-    <row r="135" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="M135"/>
-      <c r="Q135"/>
-      <c r="R135"/>
-      <c r="S135"/>
-      <c r="T135"/>
-      <c r="Y135"/>
-    </row>
-    <row r="136" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="M136"/>
-      <c r="Q136"/>
-      <c r="R136"/>
-      <c r="S136"/>
-      <c r="T136"/>
-      <c r="Y136"/>
-    </row>
-    <row r="137" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="M137"/>
-      <c r="Q137"/>
-      <c r="R137"/>
-      <c r="S137"/>
-      <c r="T137"/>
-      <c r="Y137"/>
-    </row>
-    <row r="138" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="M138"/>
-      <c r="Q138"/>
-      <c r="R138"/>
-      <c r="S138"/>
-      <c r="T138"/>
-      <c r="Y138"/>
-    </row>
-    <row r="139" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="M139"/>
-      <c r="Q139"/>
-      <c r="R139"/>
-      <c r="S139"/>
-      <c r="T139"/>
-      <c r="Y139"/>
-    </row>
-    <row r="140" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="G140"/>
-      <c r="M140"/>
-      <c r="Q140"/>
-      <c r="R140"/>
-      <c r="S140"/>
-      <c r="T140"/>
-      <c r="Y140"/>
-    </row>
-    <row r="141" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="G141"/>
-      <c r="M141"/>
-      <c r="Q141"/>
-      <c r="R141"/>
-      <c r="S141"/>
-      <c r="T141"/>
-      <c r="Y141"/>
-    </row>
-    <row r="142" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="M142"/>
-      <c r="Q142"/>
-      <c r="R142"/>
-      <c r="S142"/>
-      <c r="T142"/>
-      <c r="Y142"/>
-    </row>
-    <row r="143" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="M143"/>
-      <c r="Q143"/>
-      <c r="R143"/>
-      <c r="S143"/>
-      <c r="T143"/>
-      <c r="Y143"/>
-    </row>
-    <row r="144" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="M144"/>
-      <c r="Q144"/>
-      <c r="R144"/>
-      <c r="S144"/>
-      <c r="T144"/>
-      <c r="Y144"/>
-    </row>
-    <row r="145" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-      <c r="M145"/>
-      <c r="Q145"/>
-      <c r="R145"/>
-      <c r="S145"/>
-      <c r="T145"/>
-      <c r="Y145"/>
-    </row>
-    <row r="146" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="M146"/>
-      <c r="Q146"/>
-      <c r="R146"/>
-      <c r="S146"/>
-      <c r="T146"/>
-      <c r="Y146"/>
-    </row>
-    <row r="147" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147"/>
-      <c r="M147"/>
-      <c r="Q147"/>
-      <c r="R147"/>
-      <c r="S147"/>
-      <c r="T147"/>
-      <c r="Y147"/>
-    </row>
-    <row r="148" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="M148"/>
-      <c r="Q148"/>
-      <c r="R148"/>
-      <c r="S148"/>
-      <c r="T148"/>
-      <c r="Y148"/>
-    </row>
-    <row r="149" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E149"/>
-      <c r="F149"/>
-      <c r="G149"/>
-      <c r="M149"/>
-      <c r="Q149"/>
-      <c r="R149"/>
-      <c r="S149"/>
-      <c r="T149"/>
-      <c r="Y149"/>
-    </row>
-    <row r="150" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E150"/>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="M150"/>
-      <c r="Q150"/>
-      <c r="R150"/>
-      <c r="S150"/>
-      <c r="T150"/>
-      <c r="Y150"/>
-    </row>
-    <row r="151" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="M151"/>
-      <c r="Q151"/>
-      <c r="R151"/>
-      <c r="S151"/>
-      <c r="T151"/>
-      <c r="Y151"/>
-    </row>
-    <row r="152" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="M152"/>
-      <c r="Q152"/>
-      <c r="R152"/>
-      <c r="S152"/>
-      <c r="T152"/>
-      <c r="Y152"/>
-    </row>
-    <row r="153" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="M153"/>
-      <c r="Q153"/>
-      <c r="R153"/>
-      <c r="S153"/>
-      <c r="T153"/>
-      <c r="Y153"/>
-    </row>
-    <row r="154" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="M154"/>
-      <c r="Q154"/>
-      <c r="R154"/>
-      <c r="S154"/>
-      <c r="T154"/>
-      <c r="Y154"/>
-    </row>
-    <row r="155" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
-      <c r="M155"/>
-      <c r="Q155"/>
-      <c r="R155"/>
-      <c r="S155"/>
-      <c r="T155"/>
-      <c r="Y155"/>
-    </row>
-    <row r="156" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="M156"/>
-      <c r="Q156"/>
-      <c r="R156"/>
-      <c r="S156"/>
-      <c r="T156"/>
-      <c r="Y156"/>
-    </row>
-    <row r="157" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="M157"/>
-      <c r="Q157"/>
-      <c r="R157"/>
-      <c r="S157"/>
-      <c r="T157"/>
-      <c r="Y157"/>
-    </row>
-    <row r="158" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="M158"/>
-      <c r="Q158"/>
-      <c r="R158"/>
-      <c r="S158"/>
-      <c r="T158"/>
-      <c r="Y158"/>
-    </row>
-    <row r="159" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="M159"/>
-      <c r="Q159"/>
-      <c r="R159"/>
-      <c r="S159"/>
-      <c r="T159"/>
-      <c r="Y159"/>
-    </row>
-    <row r="160" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="M160"/>
-      <c r="Q160"/>
-      <c r="R160"/>
-      <c r="S160"/>
-      <c r="T160"/>
-      <c r="Y160"/>
-    </row>
-    <row r="161" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="M161"/>
-      <c r="Q161"/>
-      <c r="R161"/>
-      <c r="S161"/>
-      <c r="T161"/>
-      <c r="Y161"/>
-    </row>
-    <row r="162" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E162"/>
-      <c r="F162"/>
-      <c r="G162"/>
-      <c r="M162"/>
-      <c r="Q162"/>
-      <c r="R162"/>
-      <c r="S162"/>
-      <c r="T162"/>
-      <c r="Y162"/>
-    </row>
-    <row r="163" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E163"/>
-      <c r="F163"/>
-      <c r="G163"/>
-      <c r="M163"/>
-      <c r="Q163"/>
-      <c r="R163"/>
-      <c r="S163"/>
-      <c r="T163"/>
-      <c r="Y163"/>
-    </row>
-    <row r="164" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E164"/>
-      <c r="F164"/>
-      <c r="G164"/>
-      <c r="M164"/>
-      <c r="Q164"/>
-      <c r="R164"/>
-      <c r="S164"/>
-      <c r="T164"/>
-      <c r="Y164"/>
-    </row>
-    <row r="165" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E165"/>
-      <c r="F165"/>
-      <c r="G165"/>
-      <c r="M165"/>
-      <c r="Q165"/>
-      <c r="R165"/>
-      <c r="S165"/>
-      <c r="T165"/>
-      <c r="Y165"/>
-    </row>
-    <row r="166" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E166"/>
-      <c r="F166"/>
-      <c r="G166"/>
-      <c r="M166"/>
-      <c r="Q166"/>
-      <c r="R166"/>
-      <c r="S166"/>
-      <c r="T166"/>
-      <c r="Y166"/>
-    </row>
-    <row r="167" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E167"/>
-      <c r="F167"/>
-      <c r="G167"/>
-      <c r="M167"/>
-      <c r="Q167"/>
-      <c r="R167"/>
-      <c r="S167"/>
-      <c r="T167"/>
-      <c r="Y167"/>
-    </row>
-    <row r="168" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E168"/>
-      <c r="F168"/>
-      <c r="G168"/>
-      <c r="M168"/>
-      <c r="Q168"/>
-      <c r="R168"/>
-      <c r="S168"/>
-      <c r="T168"/>
-      <c r="Y168"/>
-    </row>
-    <row r="169" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E169"/>
-      <c r="F169"/>
-      <c r="G169"/>
-      <c r="M169"/>
-      <c r="Q169"/>
-      <c r="R169"/>
-      <c r="S169"/>
-      <c r="T169"/>
-      <c r="Y169"/>
-    </row>
-    <row r="170" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E170"/>
-      <c r="F170"/>
-      <c r="G170"/>
-      <c r="M170"/>
-      <c r="Q170"/>
-      <c r="R170"/>
-      <c r="S170"/>
-      <c r="T170"/>
-      <c r="Y170"/>
-    </row>
-    <row r="171" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E171"/>
-      <c r="F171"/>
-      <c r="G171"/>
-      <c r="M171"/>
-      <c r="Q171"/>
-      <c r="R171"/>
-      <c r="S171"/>
-      <c r="T171"/>
-      <c r="Y171"/>
-    </row>
-    <row r="172" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E172"/>
-      <c r="F172"/>
-      <c r="G172"/>
-      <c r="M172"/>
-      <c r="Q172"/>
-      <c r="R172"/>
-      <c r="S172"/>
-      <c r="T172"/>
-      <c r="Y172"/>
-    </row>
-    <row r="173" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E173"/>
-      <c r="F173"/>
-      <c r="G173"/>
-      <c r="M173"/>
-      <c r="Q173"/>
-      <c r="R173"/>
-      <c r="S173"/>
-      <c r="T173"/>
-      <c r="Y173"/>
-    </row>
-    <row r="174" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E174"/>
-      <c r="F174"/>
-      <c r="G174"/>
-      <c r="M174"/>
-      <c r="Q174"/>
-      <c r="R174"/>
-      <c r="S174"/>
-      <c r="T174"/>
-      <c r="Y174"/>
-    </row>
-    <row r="175" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E175"/>
-      <c r="F175"/>
-      <c r="G175"/>
-      <c r="M175"/>
-      <c r="Q175"/>
-      <c r="R175"/>
-      <c r="S175"/>
-      <c r="T175"/>
-      <c r="Y175"/>
-    </row>
-    <row r="176" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E176"/>
-      <c r="F176"/>
-      <c r="G176"/>
-      <c r="M176"/>
-      <c r="Q176"/>
-      <c r="R176"/>
-      <c r="S176"/>
-      <c r="T176"/>
-      <c r="Y176"/>
-    </row>
-    <row r="177" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E177"/>
-      <c r="F177"/>
-      <c r="G177"/>
-      <c r="M177"/>
-      <c r="Q177"/>
-      <c r="R177"/>
-      <c r="S177"/>
-      <c r="T177"/>
-      <c r="Y177"/>
-    </row>
-    <row r="178" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E178"/>
-      <c r="F178"/>
-      <c r="G178"/>
-      <c r="M178"/>
-      <c r="Q178"/>
-      <c r="R178"/>
-      <c r="S178"/>
-      <c r="T178"/>
-      <c r="Y178"/>
-    </row>
-    <row r="179" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E179"/>
-      <c r="F179"/>
-      <c r="G179"/>
-      <c r="M179"/>
-      <c r="Q179"/>
-      <c r="R179"/>
-      <c r="S179"/>
-      <c r="T179"/>
-      <c r="Y179"/>
-    </row>
-    <row r="180" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E180"/>
-      <c r="F180"/>
-      <c r="G180"/>
-      <c r="M180"/>
-      <c r="Q180"/>
-      <c r="R180"/>
-      <c r="S180"/>
-      <c r="T180"/>
-      <c r="Y180"/>
-    </row>
-    <row r="181" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E181"/>
-      <c r="F181"/>
-      <c r="G181"/>
-      <c r="M181"/>
-      <c r="Q181"/>
-      <c r="R181"/>
-      <c r="S181"/>
-      <c r="T181"/>
-      <c r="Y181"/>
-    </row>
-    <row r="182" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E182"/>
-      <c r="F182"/>
-      <c r="G182"/>
-      <c r="M182"/>
-      <c r="Q182"/>
-      <c r="R182"/>
-      <c r="S182"/>
-      <c r="T182"/>
-      <c r="Y182"/>
-    </row>
-    <row r="183" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E183"/>
-      <c r="F183"/>
-      <c r="G183"/>
-      <c r="M183"/>
-      <c r="Q183"/>
-      <c r="R183"/>
-      <c r="S183"/>
-      <c r="T183"/>
-      <c r="Y183"/>
-    </row>
-    <row r="184" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E184"/>
-      <c r="F184"/>
-      <c r="G184"/>
-      <c r="M184"/>
-      <c r="Q184"/>
-      <c r="R184"/>
-      <c r="S184"/>
-      <c r="T184"/>
-      <c r="Y184"/>
-    </row>
-    <row r="185" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E185"/>
-      <c r="F185"/>
-      <c r="G185"/>
-      <c r="M185"/>
-      <c r="Q185"/>
-      <c r="R185"/>
-      <c r="S185"/>
-      <c r="T185"/>
-      <c r="Y185"/>
-    </row>
-    <row r="186" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E186"/>
-      <c r="F186"/>
-      <c r="G186"/>
-      <c r="M186"/>
-      <c r="Q186"/>
-      <c r="R186"/>
-      <c r="S186"/>
-      <c r="T186"/>
-      <c r="Y186"/>
-    </row>
-    <row r="187" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E187"/>
-      <c r="F187"/>
-      <c r="G187"/>
-      <c r="M187"/>
-      <c r="Q187"/>
-      <c r="R187"/>
-      <c r="S187"/>
-      <c r="T187"/>
-      <c r="Y187"/>
-    </row>
-    <row r="188" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E188"/>
-      <c r="F188"/>
-      <c r="G188"/>
-      <c r="M188"/>
-      <c r="Q188"/>
-      <c r="R188"/>
-      <c r="S188"/>
-      <c r="T188"/>
-      <c r="Y188"/>
-    </row>
-    <row r="189" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E189"/>
-      <c r="F189"/>
-      <c r="G189"/>
-      <c r="M189"/>
-      <c r="Q189"/>
-      <c r="R189"/>
-      <c r="S189"/>
-      <c r="T189"/>
-      <c r="Y189"/>
-    </row>
-    <row r="190" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E190"/>
-      <c r="F190"/>
-      <c r="G190"/>
-      <c r="M190"/>
-      <c r="Q190"/>
-      <c r="R190"/>
-      <c r="S190"/>
-      <c r="T190"/>
-      <c r="Y190"/>
-    </row>
-    <row r="191" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E191"/>
-      <c r="F191"/>
-      <c r="G191"/>
-      <c r="M191"/>
-      <c r="Q191"/>
-      <c r="R191"/>
-      <c r="S191"/>
-      <c r="T191"/>
-      <c r="Y191"/>
-    </row>
-    <row r="192" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E192"/>
-      <c r="F192"/>
-      <c r="G192"/>
-      <c r="M192"/>
-      <c r="Q192"/>
-      <c r="R192"/>
-      <c r="S192"/>
-      <c r="T192"/>
-      <c r="Y192"/>
-    </row>
-    <row r="193" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E193"/>
-      <c r="F193"/>
-      <c r="G193"/>
-      <c r="M193"/>
-      <c r="Q193"/>
-      <c r="R193"/>
-      <c r="S193"/>
-      <c r="T193"/>
-      <c r="Y193"/>
-    </row>
-    <row r="194" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E194"/>
-      <c r="F194"/>
-      <c r="G194"/>
-      <c r="M194"/>
-      <c r="Q194"/>
-      <c r="R194"/>
-      <c r="S194"/>
-      <c r="T194"/>
-      <c r="Y194"/>
-    </row>
-    <row r="195" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E195"/>
-      <c r="F195"/>
-      <c r="G195"/>
-      <c r="M195"/>
-      <c r="Q195"/>
-      <c r="R195"/>
-      <c r="S195"/>
-      <c r="T195"/>
-      <c r="Y195"/>
-    </row>
-    <row r="196" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E196"/>
-      <c r="F196"/>
-      <c r="G196"/>
-      <c r="M196"/>
-      <c r="Q196"/>
-      <c r="R196"/>
-      <c r="S196"/>
-      <c r="T196"/>
-      <c r="Y196"/>
-    </row>
-    <row r="197" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E197"/>
-      <c r="F197"/>
-      <c r="G197"/>
-      <c r="M197"/>
-      <c r="Q197"/>
-      <c r="R197"/>
-      <c r="S197"/>
-      <c r="T197"/>
-      <c r="Y197"/>
-    </row>
-    <row r="198" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E198"/>
-      <c r="F198"/>
-      <c r="G198"/>
-      <c r="M198"/>
-      <c r="Q198"/>
-      <c r="R198"/>
-      <c r="S198"/>
-      <c r="T198"/>
-      <c r="Y198"/>
-    </row>
-    <row r="199" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E199"/>
-      <c r="F199"/>
-      <c r="G199"/>
-      <c r="M199"/>
-      <c r="Q199"/>
-      <c r="R199"/>
-      <c r="S199"/>
-      <c r="T199"/>
-      <c r="Y199"/>
-    </row>
-    <row r="200" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E200"/>
-      <c r="F200"/>
-      <c r="G200"/>
-      <c r="M200"/>
-      <c r="Q200"/>
-      <c r="R200"/>
-      <c r="S200"/>
-      <c r="T200"/>
-      <c r="Y200"/>
-    </row>
-    <row r="201" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E201"/>
-      <c r="F201"/>
-      <c r="G201"/>
-      <c r="M201"/>
-      <c r="Q201"/>
-      <c r="R201"/>
-      <c r="S201"/>
-      <c r="T201"/>
-      <c r="Y201"/>
-    </row>
-    <row r="202" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E202"/>
-      <c r="F202"/>
-      <c r="G202"/>
-      <c r="M202"/>
-      <c r="Q202"/>
-      <c r="R202"/>
-      <c r="S202"/>
-      <c r="T202"/>
-      <c r="Y202"/>
-    </row>
-    <row r="203" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E203"/>
-      <c r="F203"/>
-      <c r="G203"/>
-      <c r="M203"/>
-      <c r="Q203"/>
-      <c r="R203"/>
-      <c r="S203"/>
-      <c r="T203"/>
-      <c r="Y203"/>
-    </row>
-    <row r="204" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
-      <c r="M204"/>
-      <c r="Q204"/>
-      <c r="R204"/>
-      <c r="S204"/>
-      <c r="T204"/>
-      <c r="Y204"/>
-    </row>
-    <row r="205" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E205"/>
-      <c r="F205"/>
-      <c r="G205"/>
-      <c r="M205"/>
-      <c r="Q205"/>
-      <c r="R205"/>
-      <c r="S205"/>
-      <c r="T205"/>
-      <c r="Y205"/>
-    </row>
-    <row r="206" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E206"/>
-      <c r="F206"/>
-      <c r="G206"/>
-      <c r="M206"/>
-      <c r="Q206"/>
-      <c r="R206"/>
-      <c r="S206"/>
-      <c r="T206"/>
-      <c r="Y206"/>
-    </row>
-    <row r="207" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E207"/>
-      <c r="F207"/>
-      <c r="G207"/>
-      <c r="M207"/>
-      <c r="Q207"/>
-      <c r="R207"/>
-      <c r="S207"/>
-      <c r="T207"/>
-      <c r="Y207"/>
-    </row>
-    <row r="208" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E208"/>
-      <c r="F208"/>
-      <c r="G208"/>
-      <c r="M208"/>
-      <c r="Q208"/>
-      <c r="R208"/>
-      <c r="S208"/>
-      <c r="T208"/>
-      <c r="Y208"/>
-    </row>
-    <row r="209" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E209"/>
-      <c r="F209"/>
-      <c r="G209"/>
-      <c r="M209"/>
-      <c r="Q209"/>
-      <c r="R209"/>
-      <c r="S209"/>
-      <c r="T209"/>
-      <c r="Y209"/>
-    </row>
-    <row r="210" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E210"/>
-      <c r="F210"/>
-      <c r="G210"/>
-      <c r="M210"/>
-      <c r="Q210"/>
-      <c r="R210"/>
-      <c r="S210"/>
-      <c r="T210"/>
-      <c r="Y210"/>
-    </row>
-    <row r="211" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E211"/>
-      <c r="F211"/>
-      <c r="G211"/>
-      <c r="M211"/>
-      <c r="Q211"/>
-      <c r="R211"/>
-      <c r="S211"/>
-      <c r="T211"/>
-      <c r="Y211"/>
-    </row>
-    <row r="212" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E212"/>
-      <c r="F212"/>
-      <c r="G212"/>
-      <c r="M212"/>
-      <c r="Q212"/>
-      <c r="R212"/>
-      <c r="S212"/>
-      <c r="T212"/>
-      <c r="Y212"/>
-    </row>
-    <row r="213" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E213"/>
-      <c r="F213"/>
-      <c r="G213"/>
-      <c r="M213"/>
-      <c r="Q213"/>
-      <c r="R213"/>
-      <c r="S213"/>
-      <c r="T213"/>
-      <c r="Y213"/>
-    </row>
-    <row r="214" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E214"/>
-      <c r="F214"/>
-      <c r="G214"/>
-      <c r="M214"/>
-      <c r="Q214"/>
-      <c r="R214"/>
-      <c r="S214"/>
-      <c r="T214"/>
-      <c r="Y214"/>
-    </row>
-    <row r="215" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E215"/>
-      <c r="F215"/>
-      <c r="G215"/>
-      <c r="M215"/>
-      <c r="Q215"/>
-      <c r="R215"/>
-      <c r="S215"/>
-      <c r="T215"/>
-      <c r="Y215"/>
-    </row>
-    <row r="216" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E216"/>
-      <c r="F216"/>
-      <c r="G216"/>
-      <c r="M216"/>
-      <c r="Q216"/>
-      <c r="R216"/>
-      <c r="S216"/>
-      <c r="T216"/>
-      <c r="Y216"/>
-    </row>
-    <row r="217" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E217"/>
-      <c r="F217"/>
-      <c r="G217"/>
-      <c r="M217"/>
-      <c r="Q217"/>
-      <c r="R217"/>
-      <c r="S217"/>
-      <c r="T217"/>
-      <c r="Y217"/>
-    </row>
-    <row r="218" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E218"/>
-      <c r="F218"/>
-      <c r="G218"/>
-      <c r="M218"/>
-      <c r="Q218"/>
-      <c r="R218"/>
-      <c r="S218"/>
-      <c r="T218"/>
-      <c r="Y218"/>
-    </row>
-    <row r="219" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E219"/>
-      <c r="F219"/>
-      <c r="G219"/>
-      <c r="M219"/>
-      <c r="Q219"/>
-      <c r="R219"/>
-      <c r="S219"/>
-      <c r="T219"/>
-      <c r="Y219"/>
-    </row>
-    <row r="220" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E220"/>
-      <c r="F220"/>
-      <c r="G220"/>
-      <c r="M220"/>
-      <c r="Q220"/>
-      <c r="R220"/>
-      <c r="S220"/>
-      <c r="T220"/>
-      <c r="Y220"/>
-    </row>
-    <row r="221" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E221"/>
-      <c r="F221"/>
-      <c r="G221"/>
-      <c r="M221"/>
-      <c r="Q221"/>
-      <c r="R221"/>
-      <c r="S221"/>
-      <c r="T221"/>
-      <c r="Y221"/>
-    </row>
-    <row r="222" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E222"/>
-      <c r="F222"/>
-      <c r="G222"/>
-      <c r="M222"/>
-      <c r="Q222"/>
-      <c r="R222"/>
-      <c r="S222"/>
-      <c r="T222"/>
-      <c r="Y222"/>
-    </row>
-    <row r="223" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E223"/>
-      <c r="F223"/>
-      <c r="G223"/>
-      <c r="M223"/>
-      <c r="Q223"/>
-      <c r="R223"/>
-      <c r="S223"/>
-      <c r="T223"/>
-      <c r="Y223"/>
-    </row>
-    <row r="224" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E224"/>
-      <c r="F224"/>
-      <c r="G224"/>
-      <c r="M224"/>
-      <c r="Q224"/>
-      <c r="R224"/>
-      <c r="S224"/>
-      <c r="T224"/>
-      <c r="Y224"/>
-    </row>
-    <row r="225" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E225"/>
-      <c r="F225"/>
-      <c r="G225"/>
-      <c r="M225"/>
-      <c r="Q225"/>
-      <c r="R225"/>
-      <c r="S225"/>
-      <c r="T225"/>
-      <c r="Y225"/>
-    </row>
-    <row r="226" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E226"/>
-      <c r="F226"/>
-      <c r="G226"/>
-      <c r="M226"/>
-      <c r="Q226"/>
-      <c r="R226"/>
-      <c r="S226"/>
-      <c r="T226"/>
-      <c r="Y226"/>
-    </row>
-    <row r="227" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E227"/>
-      <c r="F227"/>
-      <c r="G227"/>
-      <c r="M227"/>
-      <c r="Q227"/>
-      <c r="R227"/>
-      <c r="S227"/>
-      <c r="T227"/>
-      <c r="Y227"/>
-    </row>
-    <row r="228" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E228"/>
-      <c r="F228"/>
-      <c r="G228"/>
-      <c r="M228"/>
-      <c r="Q228"/>
-      <c r="R228"/>
-      <c r="S228"/>
-      <c r="T228"/>
-      <c r="Y228"/>
-    </row>
-    <row r="229" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E229"/>
-      <c r="F229"/>
-      <c r="G229"/>
-      <c r="M229"/>
-      <c r="Q229"/>
-      <c r="R229"/>
-      <c r="S229"/>
-      <c r="T229"/>
-      <c r="Y229"/>
-    </row>
-    <row r="230" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E230"/>
-      <c r="F230"/>
-      <c r="G230"/>
-      <c r="M230"/>
-      <c r="Q230"/>
-      <c r="R230"/>
-      <c r="S230"/>
-      <c r="T230"/>
-      <c r="Y230"/>
-    </row>
-    <row r="231" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E231"/>
-      <c r="F231"/>
-      <c r="G231"/>
-      <c r="M231"/>
-      <c r="Q231"/>
-      <c r="R231"/>
-      <c r="S231"/>
-      <c r="T231"/>
-      <c r="Y231"/>
-    </row>
-    <row r="232" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E232"/>
-      <c r="F232"/>
-      <c r="G232"/>
-      <c r="M232"/>
-      <c r="Q232"/>
-      <c r="R232"/>
-      <c r="S232"/>
-      <c r="T232"/>
-      <c r="Y232"/>
-    </row>
-    <row r="233" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E233"/>
-      <c r="F233"/>
-      <c r="G233"/>
-      <c r="M233"/>
-      <c r="Q233"/>
-      <c r="R233"/>
-      <c r="S233"/>
-      <c r="T233"/>
-      <c r="Y233"/>
-    </row>
-    <row r="234" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E234"/>
-      <c r="F234"/>
-      <c r="G234"/>
-      <c r="M234"/>
-      <c r="Q234"/>
-      <c r="R234"/>
-      <c r="S234"/>
-      <c r="T234"/>
-      <c r="Y234"/>
-    </row>
-    <row r="235" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E235"/>
-      <c r="F235"/>
-      <c r="G235"/>
-      <c r="M235"/>
-      <c r="Q235"/>
-      <c r="R235"/>
-      <c r="S235"/>
-      <c r="T235"/>
-      <c r="Y235"/>
-    </row>
-    <row r="236" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E236"/>
-      <c r="F236"/>
-      <c r="G236"/>
-      <c r="M236"/>
-      <c r="Q236"/>
-      <c r="R236"/>
-      <c r="S236"/>
-      <c r="T236"/>
-      <c r="Y236"/>
-    </row>
-    <row r="237" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E237"/>
-      <c r="F237"/>
-      <c r="G237"/>
-      <c r="M237"/>
-      <c r="Q237"/>
-      <c r="R237"/>
-      <c r="S237"/>
-      <c r="T237"/>
-      <c r="Y237"/>
-    </row>
-    <row r="238" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E238"/>
-      <c r="F238"/>
-      <c r="G238"/>
-      <c r="M238"/>
-      <c r="Q238"/>
-      <c r="R238"/>
-      <c r="S238"/>
-      <c r="T238"/>
-      <c r="Y238"/>
-    </row>
-    <row r="239" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E239"/>
-      <c r="F239"/>
-      <c r="G239"/>
-      <c r="M239"/>
-      <c r="Q239"/>
-      <c r="R239"/>
-      <c r="S239"/>
-      <c r="T239"/>
-      <c r="Y239"/>
-    </row>
-    <row r="240" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E240"/>
-      <c r="F240"/>
-      <c r="G240"/>
-      <c r="M240"/>
-      <c r="Q240"/>
-      <c r="R240"/>
-      <c r="S240"/>
-      <c r="T240"/>
-      <c r="Y240"/>
-    </row>
-    <row r="241" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E241"/>
-      <c r="F241"/>
-      <c r="G241"/>
-      <c r="M241"/>
-      <c r="Q241"/>
-      <c r="R241"/>
-      <c r="S241"/>
-      <c r="T241"/>
-      <c r="Y241"/>
-    </row>
-    <row r="242" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E242"/>
-      <c r="F242"/>
-      <c r="G242"/>
-      <c r="M242"/>
-      <c r="Q242"/>
-      <c r="R242"/>
-      <c r="S242"/>
-      <c r="T242"/>
-      <c r="Y242"/>
-    </row>
-    <row r="243" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E243"/>
-      <c r="F243"/>
-      <c r="G243"/>
-      <c r="M243"/>
-      <c r="Q243"/>
-      <c r="R243"/>
-      <c r="S243"/>
-      <c r="T243"/>
-      <c r="Y243"/>
-    </row>
-    <row r="244" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E244"/>
-      <c r="F244"/>
-      <c r="G244"/>
-      <c r="M244"/>
-      <c r="Q244"/>
-      <c r="R244"/>
-      <c r="S244"/>
-      <c r="T244"/>
-      <c r="Y244"/>
-    </row>
-    <row r="245" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E245"/>
-      <c r="F245"/>
-      <c r="G245"/>
-      <c r="M245"/>
-      <c r="Q245"/>
-      <c r="R245"/>
-      <c r="S245"/>
-      <c r="T245"/>
-      <c r="Y245"/>
-    </row>
-    <row r="246" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E246"/>
-      <c r="F246"/>
-      <c r="G246"/>
-      <c r="M246"/>
-      <c r="Q246"/>
-      <c r="R246"/>
-      <c r="S246"/>
-      <c r="T246"/>
-      <c r="Y246"/>
-    </row>
-    <row r="247" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E247"/>
-      <c r="F247"/>
-      <c r="G247"/>
-      <c r="M247"/>
-      <c r="Q247"/>
-      <c r="R247"/>
-      <c r="S247"/>
-      <c r="T247"/>
-      <c r="Y247"/>
-    </row>
-    <row r="248" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E248"/>
-      <c r="F248"/>
-      <c r="G248"/>
-      <c r="M248"/>
-      <c r="Q248"/>
-      <c r="R248"/>
-      <c r="S248"/>
-      <c r="T248"/>
-      <c r="Y248"/>
-    </row>
-    <row r="249" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E249"/>
-      <c r="F249"/>
-      <c r="G249"/>
-      <c r="M249"/>
-      <c r="Q249"/>
-      <c r="R249"/>
-      <c r="S249"/>
-      <c r="T249"/>
-      <c r="Y249"/>
-    </row>
-    <row r="250" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E250"/>
-      <c r="F250"/>
-      <c r="G250"/>
-      <c r="M250"/>
-      <c r="Q250"/>
-      <c r="R250"/>
-      <c r="S250"/>
-      <c r="T250"/>
-      <c r="Y250"/>
-    </row>
-    <row r="251" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E251"/>
-      <c r="F251"/>
-      <c r="G251"/>
-      <c r="M251"/>
-      <c r="Q251"/>
-      <c r="R251"/>
-      <c r="S251"/>
-      <c r="T251"/>
-      <c r="Y251"/>
-    </row>
-    <row r="252" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E252"/>
-      <c r="F252"/>
-      <c r="G252"/>
-      <c r="M252"/>
-      <c r="Q252"/>
-      <c r="R252"/>
-      <c r="S252"/>
-      <c r="T252"/>
-      <c r="Y252"/>
-    </row>
-    <row r="253" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E253"/>
-      <c r="F253"/>
-      <c r="G253"/>
-      <c r="M253"/>
-      <c r="Q253"/>
-      <c r="R253"/>
-      <c r="S253"/>
-      <c r="T253"/>
-      <c r="Y253"/>
-    </row>
-    <row r="254" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E254"/>
-      <c r="F254"/>
-      <c r="G254"/>
-      <c r="M254"/>
-      <c r="Q254"/>
-      <c r="R254"/>
-      <c r="S254"/>
-      <c r="T254"/>
-      <c r="Y254"/>
-    </row>
-    <row r="255" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E255"/>
-      <c r="F255"/>
-      <c r="G255"/>
-      <c r="M255"/>
-      <c r="Q255"/>
-      <c r="R255"/>
-      <c r="S255"/>
-      <c r="T255"/>
-      <c r="Y255"/>
-    </row>
-    <row r="256" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E256"/>
-      <c r="F256"/>
-      <c r="G256"/>
-      <c r="M256"/>
-      <c r="Q256"/>
-      <c r="R256"/>
-      <c r="S256"/>
-      <c r="T256"/>
-      <c r="Y256"/>
-    </row>
-    <row r="257" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E257"/>
-      <c r="F257"/>
-      <c r="G257"/>
-      <c r="M257"/>
-      <c r="Q257"/>
-      <c r="R257"/>
-      <c r="S257"/>
-      <c r="T257"/>
-      <c r="Y257"/>
-    </row>
-    <row r="258" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E258"/>
-      <c r="F258"/>
-      <c r="G258"/>
-      <c r="M258"/>
-      <c r="Q258"/>
-      <c r="R258"/>
-      <c r="S258"/>
-      <c r="T258"/>
-      <c r="Y258"/>
-    </row>
-    <row r="259" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E259"/>
-      <c r="F259"/>
-      <c r="G259"/>
-      <c r="M259"/>
-      <c r="Q259"/>
-      <c r="R259"/>
-      <c r="S259"/>
-      <c r="T259"/>
-      <c r="Y259"/>
-    </row>
-    <row r="260" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E260"/>
-      <c r="F260"/>
-      <c r="G260"/>
-      <c r="M260"/>
-      <c r="Q260"/>
-      <c r="R260"/>
-      <c r="S260"/>
-      <c r="T260"/>
-      <c r="Y260"/>
-    </row>
-    <row r="261" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E261"/>
-      <c r="F261"/>
-      <c r="G261"/>
-      <c r="M261"/>
-      <c r="Q261"/>
-      <c r="R261"/>
-      <c r="S261"/>
-      <c r="T261"/>
-      <c r="Y261"/>
-    </row>
-    <row r="262" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E262"/>
-      <c r="F262"/>
-      <c r="G262"/>
-      <c r="M262"/>
-      <c r="Q262"/>
-      <c r="R262"/>
-      <c r="S262"/>
-      <c r="T262"/>
-      <c r="Y262"/>
-    </row>
-    <row r="263" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E263"/>
-      <c r="F263"/>
-      <c r="G263"/>
-      <c r="M263"/>
-      <c r="Q263"/>
-      <c r="R263"/>
-      <c r="S263"/>
-      <c r="T263"/>
-      <c r="Y263"/>
-    </row>
-    <row r="264" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E264"/>
-      <c r="F264"/>
-      <c r="G264"/>
-      <c r="M264"/>
-      <c r="Q264"/>
-      <c r="R264"/>
-      <c r="S264"/>
-      <c r="T264"/>
-      <c r="Y264"/>
-    </row>
-    <row r="265" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E265"/>
-      <c r="F265"/>
-      <c r="G265"/>
-      <c r="M265"/>
-      <c r="Q265"/>
-      <c r="R265"/>
-      <c r="S265"/>
-      <c r="T265"/>
-      <c r="Y265"/>
-    </row>
-    <row r="266" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E266"/>
-      <c r="F266"/>
-      <c r="G266"/>
-      <c r="M266"/>
-      <c r="Q266"/>
-      <c r="R266"/>
-      <c r="S266"/>
-      <c r="T266"/>
-      <c r="Y266"/>
-    </row>
-    <row r="267" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E267"/>
-      <c r="F267"/>
-      <c r="G267"/>
-      <c r="M267"/>
-      <c r="Q267"/>
-      <c r="R267"/>
-      <c r="S267"/>
-      <c r="T267"/>
-      <c r="Y267"/>
-    </row>
-    <row r="268" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E268"/>
-      <c r="F268"/>
-      <c r="G268"/>
-      <c r="M268"/>
-      <c r="Q268"/>
-      <c r="R268"/>
-      <c r="S268"/>
-      <c r="T268"/>
-      <c r="Y268"/>
-    </row>
-    <row r="269" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E269"/>
-      <c r="F269"/>
-      <c r="G269"/>
-      <c r="M269"/>
-      <c r="Q269"/>
-      <c r="R269"/>
-      <c r="S269"/>
-      <c r="T269"/>
-      <c r="Y269"/>
-    </row>
-    <row r="270" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E270"/>
-      <c r="F270"/>
-      <c r="G270"/>
-      <c r="M270"/>
-      <c r="Q270"/>
-      <c r="R270"/>
-      <c r="S270"/>
-      <c r="T270"/>
-      <c r="Y270"/>
-    </row>
-    <row r="271" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E271"/>
-      <c r="F271"/>
-      <c r="G271"/>
-      <c r="M271"/>
-      <c r="Q271"/>
-      <c r="R271"/>
-      <c r="S271"/>
-      <c r="T271"/>
-      <c r="Y271"/>
-    </row>
-    <row r="272" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E272"/>
-      <c r="F272"/>
-      <c r="G272"/>
-      <c r="M272"/>
-      <c r="Q272"/>
-      <c r="R272"/>
-      <c r="S272"/>
-      <c r="T272"/>
-      <c r="Y272"/>
-    </row>
-    <row r="273" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E273"/>
-      <c r="F273"/>
-      <c r="G273"/>
-      <c r="M273"/>
-      <c r="Q273"/>
-      <c r="R273"/>
-      <c r="S273"/>
-      <c r="T273"/>
-      <c r="Y273"/>
-    </row>
-    <row r="274" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E274"/>
-      <c r="F274"/>
-      <c r="G274"/>
-      <c r="M274"/>
-      <c r="Q274"/>
-      <c r="R274"/>
-      <c r="S274"/>
-      <c r="T274"/>
-      <c r="Y274"/>
-    </row>
-    <row r="275" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E275"/>
-      <c r="F275"/>
-      <c r="G275"/>
-      <c r="M275"/>
-      <c r="Q275"/>
-      <c r="R275"/>
-      <c r="S275"/>
-      <c r="T275"/>
-      <c r="Y275"/>
-    </row>
-    <row r="276" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E276"/>
-      <c r="F276"/>
-      <c r="G276"/>
-      <c r="M276"/>
-      <c r="Q276"/>
-      <c r="R276"/>
-      <c r="S276"/>
-      <c r="T276"/>
-      <c r="Y276"/>
-    </row>
-    <row r="277" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E277"/>
-      <c r="F277"/>
-      <c r="G277"/>
-      <c r="M277"/>
-      <c r="Q277"/>
-      <c r="R277"/>
-      <c r="S277"/>
-      <c r="T277"/>
-      <c r="Y277"/>
-    </row>
-    <row r="278" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E278"/>
-      <c r="F278"/>
-      <c r="G278"/>
-      <c r="M278"/>
-      <c r="Q278"/>
-      <c r="R278"/>
-      <c r="S278"/>
-      <c r="T278"/>
-      <c r="Y278"/>
-    </row>
-    <row r="279" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E279"/>
-      <c r="F279"/>
-      <c r="G279"/>
-      <c r="M279"/>
-      <c r="Q279"/>
-      <c r="R279"/>
-      <c r="S279"/>
-      <c r="T279"/>
-      <c r="Y279"/>
-    </row>
-    <row r="280" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E280"/>
-      <c r="F280"/>
-      <c r="G280"/>
-      <c r="M280"/>
-      <c r="Q280"/>
-      <c r="R280"/>
-      <c r="S280"/>
-      <c r="T280"/>
-      <c r="Y280"/>
-    </row>
-    <row r="281" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E281"/>
-      <c r="F281"/>
-      <c r="G281"/>
-      <c r="M281"/>
-      <c r="Q281"/>
-      <c r="R281"/>
-      <c r="S281"/>
-      <c r="T281"/>
-      <c r="Y281"/>
-    </row>
-    <row r="282" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E282"/>
-      <c r="F282"/>
-      <c r="G282"/>
-      <c r="M282"/>
-      <c r="Q282"/>
-      <c r="R282"/>
-      <c r="S282"/>
-      <c r="T282"/>
-      <c r="Y282"/>
-    </row>
-    <row r="283" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E283"/>
-      <c r="F283"/>
-      <c r="G283"/>
-      <c r="M283"/>
-      <c r="Q283"/>
-      <c r="R283"/>
-      <c r="S283"/>
-      <c r="T283"/>
-      <c r="Y283"/>
-    </row>
-    <row r="284" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E284"/>
-      <c r="F284"/>
-      <c r="G284"/>
-      <c r="M284"/>
-      <c r="Q284"/>
-      <c r="R284"/>
-      <c r="S284"/>
-      <c r="T284"/>
-      <c r="Y284"/>
-    </row>
-    <row r="285" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E285"/>
-      <c r="F285"/>
-      <c r="G285"/>
-      <c r="M285"/>
-      <c r="Q285"/>
-      <c r="R285"/>
-      <c r="S285"/>
-      <c r="T285"/>
-      <c r="Y285"/>
-    </row>
-    <row r="286" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E286"/>
-      <c r="F286"/>
-      <c r="G286"/>
-      <c r="M286"/>
-      <c r="Q286"/>
-      <c r="R286"/>
-      <c r="S286"/>
-      <c r="T286"/>
-      <c r="Y286"/>
-    </row>
-    <row r="287" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E287"/>
-      <c r="F287"/>
-      <c r="G287"/>
-      <c r="M287"/>
-      <c r="Q287"/>
-      <c r="R287"/>
-      <c r="S287"/>
-      <c r="T287"/>
-      <c r="Y287"/>
-    </row>
-    <row r="288" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E288"/>
-      <c r="F288"/>
-      <c r="G288"/>
-      <c r="M288"/>
-      <c r="Q288"/>
-      <c r="R288"/>
-      <c r="S288"/>
-      <c r="T288"/>
-      <c r="Y288"/>
-    </row>
-    <row r="289" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E289"/>
-      <c r="F289"/>
-      <c r="G289"/>
-      <c r="M289"/>
-      <c r="Q289"/>
-      <c r="R289"/>
-      <c r="S289"/>
-      <c r="T289"/>
-      <c r="Y289"/>
-    </row>
-    <row r="290" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E290"/>
-      <c r="F290"/>
-      <c r="G290"/>
-      <c r="M290"/>
-      <c r="Q290"/>
-      <c r="R290"/>
-      <c r="S290"/>
-      <c r="T290"/>
-      <c r="Y290"/>
-    </row>
-    <row r="291" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E291"/>
-      <c r="F291"/>
-      <c r="G291"/>
-      <c r="M291"/>
-      <c r="Q291"/>
-      <c r="R291"/>
-      <c r="S291"/>
-      <c r="T291"/>
-      <c r="Y291"/>
-    </row>
-    <row r="292" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E292"/>
-      <c r="F292"/>
-      <c r="G292"/>
-      <c r="M292"/>
-      <c r="Q292"/>
-      <c r="R292"/>
-      <c r="S292"/>
-      <c r="T292"/>
-      <c r="Y292"/>
-    </row>
-    <row r="293" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E293"/>
-      <c r="F293"/>
-      <c r="G293"/>
-      <c r="M293"/>
-      <c r="Q293"/>
-      <c r="R293"/>
-      <c r="S293"/>
-      <c r="T293"/>
-      <c r="Y293"/>
-    </row>
-    <row r="294" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E294"/>
-      <c r="F294"/>
-      <c r="G294"/>
-      <c r="M294"/>
-      <c r="Q294"/>
-      <c r="R294"/>
-      <c r="S294"/>
-      <c r="T294"/>
-      <c r="Y294"/>
-    </row>
-    <row r="295" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E295"/>
-      <c r="F295"/>
-      <c r="G295"/>
-      <c r="M295"/>
-      <c r="Q295"/>
-      <c r="R295"/>
-      <c r="S295"/>
-      <c r="T295"/>
-      <c r="Y295"/>
-    </row>
-    <row r="296" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E296"/>
-      <c r="F296"/>
-      <c r="G296"/>
-      <c r="M296"/>
-      <c r="Q296"/>
-      <c r="R296"/>
-      <c r="S296"/>
-      <c r="T296"/>
-      <c r="Y296"/>
-    </row>
-    <row r="297" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E297"/>
-      <c r="F297"/>
-      <c r="G297"/>
-      <c r="M297"/>
-      <c r="Q297"/>
-      <c r="R297"/>
-      <c r="S297"/>
-      <c r="T297"/>
-      <c r="Y297"/>
-    </row>
-    <row r="298" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E298"/>
-      <c r="F298"/>
-      <c r="G298"/>
-      <c r="M298"/>
-      <c r="Q298"/>
-      <c r="R298"/>
-      <c r="S298"/>
-      <c r="T298"/>
-      <c r="Y298"/>
-    </row>
-    <row r="299" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E299"/>
-      <c r="F299"/>
-      <c r="G299"/>
-      <c r="M299"/>
-      <c r="Q299"/>
-      <c r="R299"/>
-      <c r="S299"/>
-      <c r="T299"/>
-      <c r="Y299"/>
-    </row>
-    <row r="300" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E300"/>
-      <c r="F300"/>
-      <c r="G300"/>
-      <c r="M300"/>
-      <c r="Q300"/>
-      <c r="R300"/>
-      <c r="S300"/>
-      <c r="T300"/>
-      <c r="Y300"/>
-    </row>
-    <row r="301" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E301"/>
-      <c r="F301"/>
-      <c r="G301"/>
-      <c r="M301"/>
-      <c r="Q301"/>
-      <c r="R301"/>
-      <c r="S301"/>
-      <c r="T301"/>
-      <c r="Y301"/>
-    </row>
-    <row r="302" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E302"/>
-      <c r="F302"/>
-      <c r="G302"/>
-      <c r="M302"/>
-      <c r="Q302"/>
-      <c r="R302"/>
-      <c r="S302"/>
-      <c r="T302"/>
-      <c r="Y302"/>
-    </row>
-    <row r="303" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E303"/>
-      <c r="F303"/>
-      <c r="G303"/>
-      <c r="M303"/>
-      <c r="Q303"/>
-      <c r="R303"/>
-      <c r="S303"/>
-      <c r="T303"/>
-      <c r="Y303"/>
-    </row>
-    <row r="304" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E304"/>
-      <c r="F304"/>
-      <c r="G304"/>
-      <c r="M304"/>
-      <c r="Q304"/>
-      <c r="R304"/>
-      <c r="S304"/>
-      <c r="T304"/>
-      <c r="Y304"/>
-    </row>
-    <row r="305" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E305"/>
-      <c r="F305"/>
-      <c r="G305"/>
-      <c r="M305"/>
-      <c r="Q305"/>
-      <c r="R305"/>
-      <c r="S305"/>
-      <c r="T305"/>
-      <c r="Y305"/>
-    </row>
-    <row r="306" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E306"/>
-      <c r="F306"/>
-      <c r="G306"/>
-      <c r="M306"/>
-      <c r="Q306"/>
-      <c r="R306"/>
-      <c r="S306"/>
-      <c r="T306"/>
-      <c r="Y306"/>
-    </row>
-    <row r="307" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E307"/>
-      <c r="F307"/>
-      <c r="G307"/>
-      <c r="M307"/>
-      <c r="Q307"/>
-      <c r="R307"/>
-      <c r="S307"/>
-      <c r="T307"/>
-      <c r="Y307"/>
-    </row>
-    <row r="308" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E308"/>
-      <c r="F308"/>
-      <c r="G308"/>
-      <c r="M308"/>
-      <c r="Q308"/>
-      <c r="R308"/>
-      <c r="S308"/>
-      <c r="T308"/>
-      <c r="Y308"/>
-    </row>
-    <row r="309" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E309"/>
-      <c r="F309"/>
-      <c r="G309"/>
-      <c r="M309"/>
-      <c r="Q309"/>
-      <c r="R309"/>
-      <c r="S309"/>
-      <c r="T309"/>
-      <c r="Y309"/>
-    </row>
-    <row r="310" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E310"/>
-      <c r="F310"/>
-      <c r="G310"/>
-      <c r="M310"/>
-      <c r="Q310"/>
-      <c r="R310"/>
-      <c r="S310"/>
-      <c r="T310"/>
-      <c r="Y310"/>
-    </row>
-    <row r="311" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E311"/>
-      <c r="F311"/>
-      <c r="G311"/>
-      <c r="M311"/>
-      <c r="Q311"/>
-      <c r="R311"/>
-      <c r="S311"/>
-      <c r="T311"/>
-      <c r="Y311"/>
-    </row>
-    <row r="312" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E312"/>
-      <c r="F312"/>
-      <c r="G312"/>
-      <c r="M312"/>
-      <c r="Q312"/>
-      <c r="R312"/>
-      <c r="S312"/>
-      <c r="T312"/>
-      <c r="Y312"/>
-    </row>
-    <row r="313" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E313"/>
-      <c r="F313"/>
-      <c r="G313"/>
-      <c r="M313"/>
-      <c r="Q313"/>
-      <c r="R313"/>
-      <c r="S313"/>
-      <c r="T313"/>
-      <c r="Y313"/>
-    </row>
-    <row r="314" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E314"/>
-      <c r="F314"/>
-      <c r="G314"/>
-      <c r="M314"/>
-      <c r="Q314"/>
-      <c r="R314"/>
-      <c r="S314"/>
-      <c r="T314"/>
-      <c r="Y314"/>
-    </row>
-    <row r="315" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E315"/>
-      <c r="F315"/>
-      <c r="G315"/>
-      <c r="M315"/>
-      <c r="Q315"/>
-      <c r="R315"/>
-      <c r="S315"/>
-      <c r="T315"/>
-      <c r="Y315"/>
-    </row>
-    <row r="316" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E316"/>
-      <c r="F316"/>
-      <c r="G316"/>
-      <c r="M316"/>
-      <c r="Q316"/>
-      <c r="R316"/>
-      <c r="S316"/>
-      <c r="T316"/>
-      <c r="Y316"/>
-    </row>
-    <row r="317" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E317"/>
-      <c r="F317"/>
-      <c r="G317"/>
-      <c r="M317"/>
-      <c r="Q317"/>
-      <c r="R317"/>
-      <c r="S317"/>
-      <c r="T317"/>
-      <c r="Y317"/>
-    </row>
-    <row r="318" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E318"/>
-      <c r="F318"/>
-      <c r="G318"/>
-      <c r="M318"/>
-      <c r="Q318"/>
-      <c r="R318"/>
-      <c r="S318"/>
-      <c r="T318"/>
-      <c r="Y318"/>
-    </row>
-    <row r="319" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E319"/>
-      <c r="F319"/>
-      <c r="G319"/>
-      <c r="M319"/>
-      <c r="Q319"/>
-      <c r="R319"/>
-      <c r="S319"/>
-      <c r="T319"/>
-      <c r="Y319"/>
-    </row>
-    <row r="320" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E320"/>
-      <c r="F320"/>
-      <c r="G320"/>
-      <c r="M320"/>
-      <c r="Q320"/>
-      <c r="R320"/>
-      <c r="S320"/>
-      <c r="T320"/>
-      <c r="Y320"/>
-    </row>
-    <row r="321" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E321"/>
-      <c r="F321"/>
-      <c r="G321"/>
-      <c r="M321"/>
-      <c r="Q321"/>
-      <c r="R321"/>
-      <c r="S321"/>
-      <c r="T321"/>
-      <c r="Y321"/>
-    </row>
-    <row r="322" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E322"/>
-      <c r="F322"/>
-      <c r="G322"/>
-      <c r="M322"/>
-      <c r="Q322"/>
-      <c r="R322"/>
-      <c r="S322"/>
-      <c r="T322"/>
-      <c r="Y322"/>
-    </row>
-    <row r="323" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E323"/>
-      <c r="F323"/>
-      <c r="G323"/>
-      <c r="M323"/>
-      <c r="Q323"/>
-      <c r="R323"/>
-      <c r="S323"/>
-      <c r="T323"/>
-      <c r="Y323"/>
-    </row>
+      <c r="U16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AN16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="310" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="311" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="312" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="313" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="315" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="317" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="318" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="319" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="320" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:Y1"/>
+    <mergeCell ref="Z1:AM1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8285,8 +5766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9D1FBB-17B3-4A59-87F0-2F120B0158DD}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8319,22 +5800,22 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="14"/>
+      <c r="T1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="6"/>
+      <c r="U1" s="14"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
@@ -8837,6 +6318,44 @@
       <c r="I12">
         <v>966.9</v>
       </c>
+      <c r="L12" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" t="s">
+        <v>219</v>
+      </c>
+      <c r="N12">
+        <f>_xlfn.STDEV.P(N4,N8)</f>
+        <v>2.2872597404388184E-2</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:U12" si="1">_xlfn.STDEV.P(O4,O8)</f>
+        <v>5.8562034069128632E-2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>2.9170531930859389E-3</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>3.1926830422928654E-3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>3.9888661687121851E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>2.7708148230022711E-2</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>1.1918870336399323E-2</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>2.9674354859990926E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8863,6 +6382,44 @@
       <c r="I13">
         <v>1033.5</v>
       </c>
+      <c r="L13" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" t="s">
+        <v>219</v>
+      </c>
+      <c r="N13">
+        <f>_xlfn.STDEV.P(N5:N7)</f>
+        <v>5.6533799597230573E-2</v>
+      </c>
+      <c r="O13">
+        <f>_xlfn.STDEV.P(O5)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:T13" si="2">_xlfn.STDEV.P(P5:P7)</f>
+        <v>1.5057443422066327E-2</v>
+      </c>
+      <c r="Q13">
+        <f>_xlfn.STDEV.P(Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>3.4723890582773351E-2</v>
+      </c>
+      <c r="S13">
+        <f>_xlfn.STDEV.P(S5)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>2.1588711717813579E-2</v>
+      </c>
+      <c r="U13">
+        <f>_xlfn.STDEV.P(U5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -8889,6 +6446,41 @@
       <c r="I14">
         <v>903.8</v>
       </c>
+      <c r="M14" t="s">
+        <v>208</v>
+      </c>
+      <c r="N14">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},N4,N8),N5:N7,2,3)</f>
+        <v>0.89369016722656824</v>
+      </c>
+      <c r="O14" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},O4,O8),O5,2,3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},P4,P8),P5:P7,2,3)</f>
+        <v>1.6894256310163551E-2</v>
+      </c>
+      <c r="Q14" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},Q4,Q8),Q5,2,3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},R4,R8),R5:R7,2,3)</f>
+        <v>0.16904789594159697</v>
+      </c>
+      <c r="S14" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},S4,S8),S5,2,3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},T4,T8),T5:T7,2,3)</f>
+        <v>0.92767505843367104</v>
+      </c>
+      <c r="U14" t="e">
+        <f>_xlfn.T.TEST(CHOOSE({1,2},U4,U8),U5,2,3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -8914,6 +6506,9 @@
       </c>
       <c r="I15">
         <v>1008.5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -9087,8 +6682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D6D9B6-B17A-4059-963B-57F1346D3CF3}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
